--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -765,8 +765,156 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -809,7 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -826,6 +974,80 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -842,6 +1064,80 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1173,51 +1469,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="65.1640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>15</v>
@@ -1227,1256 +1523,1256 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="6">
         <v>41889</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
       <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
       <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>10</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9">
         <v>-1</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10">
         <v>-1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>48</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="K12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13">
         <v>-1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16">
         <v>-1</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
         <v>-1</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
         <v>-1</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20">
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
         <v>-1</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>27</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-1</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>48</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="K21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="2:11">
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
         <v>-1</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28">
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28">
         <v>-1</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31">
         <v>-1</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33">
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33">
         <v>0</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>76</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="K33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="B34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>10</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
         <v>76</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="B35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
         <v>32</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="B36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
       <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
         <v>12</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>81</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="K36" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="B37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37">
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37">
         <v>-1</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>84</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="B38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38">
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38">
         <v>-1</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>32</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="B39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39">
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>87</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="K39" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="B40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
       <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
         <v>12</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>32</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="B41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
       <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
         <v>12</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="B42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F42" t="s">
-        <v>6</v>
-      </c>
       <c r="G42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
         <v>12</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="B43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
       <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
         <v>12</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>81</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="B44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
         <v>84</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="K44" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="B45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F45" t="s">
-        <v>6</v>
-      </c>
       <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
         <v>12</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>32</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="B46" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46">
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46">
         <v>-1</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>100</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="6">
+        <v>41896</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="6">
-        <v>41896</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="6">
+        <v>41905</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="6">
-        <v>41905</v>
-      </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="6">
+        <v>41907</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="6">
-        <v>41907</v>
-      </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6">
+        <v>41913</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="6">
-        <v>41913</v>
-      </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6">
+        <v>41919</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B51" s="6">
-        <v>41919</v>
-      </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="6">
+        <v>41926</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="6">
-        <v>41926</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
         <v>49</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53">
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53">
         <v>-1</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>32</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54">
+      <c r="G54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54">
         <v>-1</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>32</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55">
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55">
         <v>-1</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>81</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
         <v>112</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F57" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>32</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>10</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
         <v>32</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F59" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>116</v>
       </c>
-      <c r="I59" s="4" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60">
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60">
         <v>-1</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>32</v>
       </c>
-      <c r="I60" s="4" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61">
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61">
         <v>-1</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>126</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F62" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62">
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62">
         <v>-1</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>126</v>
       </c>
-      <c r="I62" s="4" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F63" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63">
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63">
         <v>-1</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>32</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
         <v>32</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65">
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65">
         <v>-1</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>131</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>133</v>
@@ -2486,474 +2782,474 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="6">
+        <v>41940</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="6">
-        <v>41940</v>
-      </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="6">
+        <v>41960</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="6">
-        <v>41960</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>27</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>-1</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>137</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="K67" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F68" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68">
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68">
         <v>0</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>140</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="K68" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="6">
+        <v>41974</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B69" s="6">
-        <v>41974</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F69" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
         <v>30</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>10</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
         <v>146</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
         <v>40</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F72" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
         <v>91</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F73" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
         <v>76</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
         <v>151</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F75" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
         <v>91</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="J75" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F76" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
         <v>76</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
         <v>155</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F78" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="G78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
         <v>30</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F79" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
         <v>81</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F80" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
         <v>81</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="2:11">
+      <c r="B81" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81">
+      <c r="G81" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81">
         <v>-1</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>146</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="2:11">
+      <c r="B82" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="G82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
         <v>81</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="2:11">
+      <c r="B83" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F83" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83">
+      <c r="G83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83">
         <v>-1</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>100</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="2:11">
+      <c r="B84" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F84" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
+      <c r="G84" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
         <v>165</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="2:11">
+      <c r="B85" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F85" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
         <v>140</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="2:11">
+      <c r="B86" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F86" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86">
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86">
         <v>0</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>179</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>171</v>
@@ -2962,93 +3258,93 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="2:11">
+      <c r="B87" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F87" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87">
+      <c r="G87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87">
         <v>0</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>172</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="2:11">
+      <c r="B88" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F88" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="G88" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
         <v>74</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="2:11">
+      <c r="B89" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F89" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
+      <c r="G89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
         <v>177</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="2:11">
+      <c r="B90" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F90" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
+      <c r="G90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
         <v>131</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>133</v>
@@ -3057,24 +3353,24 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="2:11">
+      <c r="B91" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>10</v>
       </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
         <v>32</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>129</v>
@@ -3083,47 +3379,47 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="2:11">
+      <c r="B92" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F92" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92">
+      <c r="G92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92">
         <v>-1</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>91</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1" t="s">
+    <row r="93" spans="2:11">
+      <c r="B93" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F93" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93">
+      <c r="G93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93">
         <v>0</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>185</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>187</v>
@@ -3132,24 +3428,24 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1" t="s">
+    <row r="94" spans="2:11">
+      <c r="B94" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F94" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="G94" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
         <v>189</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>193</v>
@@ -3158,47 +3454,47 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1" t="s">
+    <row r="95" spans="2:11">
+      <c r="B95" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F95" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95">
+      <c r="G95" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95">
         <v>0</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>30</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1" t="s">
+    <row r="96" spans="2:11">
+      <c r="B96" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96">
+      <c r="G96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96">
         <v>0</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>87</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="J96" s="4" t="s">
         <v>195</v>
@@ -3207,47 +3503,47 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="1" t="s">
+    <row r="97" spans="2:10">
+      <c r="B97" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F97" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="G97" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
         <v>81</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="2:10">
+      <c r="B98" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F98" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="G98" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
         <v>91</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="J98" s="4" t="s">
         <v>200</v>
